--- a/greenvalley-reseller-result.xlsx
+++ b/greenvalley-reseller-result.xlsx
@@ -20,21 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
+  <si>
+    <t xml:space="preserve">Continent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
   <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
+    <t xml:space="preserve">Reseller</t>
   </si>
   <si>
     <t xml:space="preserve">Asia/Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">Mainland China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreenValley International</t>
   </si>
   <si>
     <t xml:space="preserve">Office 2308, Building 2a
@@ -47,18 +53,27 @@
     <t xml:space="preserve">HongKong</t>
   </si>
   <si>
+    <t xml:space="preserve">BuiltInfo Company Limited</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kwai Cheong Centre,
 50 Kwai Cheong Road, Kwai Chung, N.T., Hong Kong
 Tel: +852 3565 5212
 </t>
   </si>
   <si>
+    <t xml:space="preserve">A&amp;P Instrument</t>
+  </si>
+  <si>
     <t xml:space="preserve">Room 68, 1/F Sino IndustrialPlaza 9 Kai Cheung Road, Kowloon Bay, Kowloon
 Tel: (852) 2755 6578
 Email: info@anp.com.hk
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Otg Onthego Limited</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit 1-9, 8/F, Global Gateway Tower, 63 King Lam Street, Lai Chi Kok, Kowloon, Hong Kong
 Tel: +852-37005700
 Email: info@otg.com.hk
@@ -66,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokyo Inc.</t>
   </si>
   <si>
     <t xml:space="preserve">No. 5 Hase Bldg. 2F, 637, Suiginyacho
@@ -76,22 +94,34 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">AME Corporation</t>
+  </si>
+  <si>
     <t xml:space="preserve">307 Daiwamansion, 7-9 ,1Chome Amakubo
 Tsukuba City, Ibaraki KEN , Japan
 Email: info@ame-corporation.com
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Nikon Trimble</t>
+  </si>
+  <si>
     <t xml:space="preserve">Technoport Mitsuiseimei Bldg, 16-2 Minamikamata 2-chome
 Ota-ku, tokyo 144-0035, Japan
 Email: fujii.mauro@nikon-trimble.net
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Nippon Kaiyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Towa Bldg. 5-13-4, Towa, Adachi-Ku
 Tokyo, Japan
 Email: mnishino@tecsrg.co.jp
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flights Inc</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -102,6 +132,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">TP Holdings Co.,Ltd.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-2-20,Senba-Hgashi,Minoh-city,Osaka,562-0035,Japan
 Email: kawano@tphd.co.jp
 Phone:+81-72-7292690
@@ -109,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOSECO LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geosystems Inc.</t>
   </si>
   <si>
     <r>
@@ -139,6 +178,9 @@
 Product Line: LiBackpack, LiDAR360
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Young In Scientific Co., Ltd</t>
   </si>
   <si>
     <r>
@@ -172,6 +214,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Wipco, ltd.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -204,6 +249,9 @@
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
+    <t xml:space="preserve">Kodi Engineering Services Pte Ltd</t>
+  </si>
+  <si>
     <t xml:space="preserve">No. 8, Kaki Bukit Road 2, Ruby Warehouse Complex #03-34
 Singapore 417841
 Tel: +65 6745 3675
@@ -212,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. Credent Teknologi</t>
   </si>
   <si>
     <t xml:space="preserve">Tower Fontana 27st Floor Unit BF27F2,The Mansion at Dukuh Golf Kemayoran,Jalan Trembesi Blok D, Bandar Kemayoran,Jakarta 14410
@@ -220,6 +271,9 @@
 M: +62 (813)16600568
 Email: syahril@credent-asia.com
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. Sonar Nusantara Utama</t>
   </si>
   <si>
     <t xml:space="preserve">Estubizi Business Center
@@ -234,6 +288,9 @@
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
+    <t xml:space="preserve">Jurukur Professional</t>
+  </si>
+  <si>
     <t xml:space="preserve">2nd Floor, Lot 2, Wisma HCS
 Jalan Kolam, Luyang
 Kota Kinabalu, Malaysia
@@ -241,12 +298,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Digdat Sdn Bhd</t>
+  </si>
+  <si>
     <t xml:space="preserve">B7-Dataran Palma, Jalan Selaman 1, 68000, Ampang, Selangor, MALAYSIA
 Tel : 0133777771
 Email: nas@digdat.my
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Bandwork GPS Solutions Sdn Bhd</t>
+  </si>
+  <si>
     <t xml:space="preserve">No 9-11, Menara K1, Lorong 3/137C, Old Klang Road, 58200 Kuala Lumpur, Malaysia
 Tel: +6012 2256 988 / +603 7494 1229
 Email: jackson@bandwork.com.my / sales@bandwork.com.my
@@ -256,6 +319,9 @@
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Security Angels</t>
+  </si>
+  <si>
     <t xml:space="preserve">No. 8 St. 1 Sector 3 AECHS, Rawalpindi Pakistan
 Email: info@securityangels.net
 Website http://www.securityangels.net
@@ -265,8 +331,14 @@
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">MGW Trade &amp; Service</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 Kiewa Close, Croydon Hills, VIC 3136, Australia Email: Info@mgwtradenservice.com.au Website https://mgwtradenservice.com.au/
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1 Store</t>
   </si>
   <si>
     <t xml:space="preserve">421 Victoria St, Brunswick, Victoria 3056
@@ -278,6 +350,9 @@
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
+    <t xml:space="preserve">Geospace NZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">29G Peters Way, Silverdale, Auckland 0932 Tel: +6421-2135518 Email: rfrancis@geospace.co.nz
 </t>
   </si>
@@ -286,6 +361,9 @@
   </si>
   <si>
     <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical 3D</t>
   </si>
   <si>
     <t xml:space="preserve">Vertical 3D, 63 rue André Bollier, 69007 Lyon
@@ -294,6 +372,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">INAIRTECH</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAC des 4 Routes, 63210 OLBY
 Phone: +33 7 73 88 77 26
 Email:contact@inairtech.fr
@@ -303,12 +384,18 @@
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Solectric GmbH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ubstadter Str. 28, 76698 Ubstadt-Weiher, Germany
 Email: industrial@solectric.de
 </t>
   </si>
   <si>
     <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geosense</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -322,9 +409,15 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Lidar Italia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genova, Italy
 Email: info@lidar-italia.it
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP Droni Srl</t>
   </si>
   <si>
     <t xml:space="preserve">Pisacane 35R, 16129, Genova, Italy
@@ -333,6 +426,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Gter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piazza De Marini 3/61, 16123, Genova, Italy
 Phone: +39 010.869.4830
 Email: tiziano.cosso@gter.it
@@ -342,6 +438,9 @@
     <t xml:space="preserve">Latvia</t>
   </si>
   <si>
+    <t xml:space="preserve">SIA GEO Pro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospitāļu iela 37- 52, Rīga, LV-1013
 Phone: +371 29584666
 Email: geopro@geopro.lv
@@ -351,6 +450,9 @@
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Romvesen AS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blålid, 6734 Rugsund, Norway
 Phone: +47 944 98 730
 Email: post@romvesen.as
@@ -360,6 +462,9 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">TPI sp. z o.o.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPI sp. z o.o., Ul. Bartycka 22, 00-716 Warszawa, Poland
 Phone: +48 22 632 91 40
 Email: tpi@tpi.com.pl
@@ -367,6 +472,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia/Kazakhstan/Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfascaner LLC</t>
   </si>
   <si>
     <t xml:space="preserve">Osenny Blv. 4, Moscow, Russia, 121609
@@ -379,6 +487,9 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Grafinta S.A.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Av. de Filipinas, 46 28003 - Madrid Spain
 Phone: +34 91 553 72 07 / +34 91 533 62 82
 Email: paloma@grafinta.com / grafinta@grafinta.com
@@ -388,6 +499,9 @@
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">TopoDrone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rue de la Gare 13, 1820 Montreux, Switzerland
 Phone: +41 21 588 02 11
 Email: info@topodrone.org
@@ -395,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELYA Teknoloji San. ve Tic. A.Ş.</t>
   </si>
   <si>
     <t xml:space="preserve">Kızılırmak Mah. 1445 Sok. No:2 The Paragon Kat:23 Çukurambar Çankaya ANKARA
@@ -407,6 +524,9 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">Spaero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bogdana Khmelnitskogo Street 29a, Kharkiv
 Ukraine
 Phone: +38(057)759-11-37
@@ -420,6 +540,9 @@
     <t xml:space="preserve">Morocco</t>
   </si>
   <si>
+    <t xml:space="preserve">DR Stone</t>
+  </si>
+  <si>
     <t xml:space="preserve">7 rue Oran Gauthier, 20000 Casablanca
 Phone: +212 520 510 053
 Email: contact@drstone.ma
@@ -433,6 +556,12 @@
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">RMUS Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candrone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit 319 2999 Underhill Ave, Burnaby, BC, V5A 3C2
 Phone: 1 888 461 5742
 Email: support@candrone.com
@@ -442,18 +571,27 @@
     <t xml:space="preserve">America</t>
   </si>
   <si>
+    <t xml:space="preserve">Empire Drone</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 Canalview Mall, Fulton, NY 13069
 Phone: (866) 207-4499/(315) 743-4285
 Email: sales@empiredroneco.com
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Mapping Operations Data Unmanned Solutions (DBA MODUS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1155 Camino Del Mar #211, Del Mar CA 92130
 Phone : 858-717-0234
 Email: info@modus-ai.com
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Frontier Precision, Inc.</t>
+  </si>
+  <si>
     <t xml:space="preserve">5480 West 60th Avenue, Unit A Arvada, CO 80003
 Phone: 1 888 359 3703
 Email: survey_support@frontierprecision.com
@@ -466,6 +604,9 @@
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Santiago &amp; Cintra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Av Dr Celso Charuri, 6391 – Ribeirao Preto – SP - Brasil
 Phone: +55 16 3965-8220
 Email: fale_conosco@santiagoecintra.com.br
@@ -475,6 +616,9 @@
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">Drone Services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zufriategui 3153 Villa Martelli - Buenos Aires
 Phone: +54 11 4011-3000 / +54 911 6209 3259
 Email: info@droneservices.com.ar
@@ -482,6 +626,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automapp Spa</t>
   </si>
   <si>
     <t xml:space="preserve">Address 1: Av. José Manuel Balmaceda 183, Viña del Mar - Chile
@@ -493,6 +640,9 @@
   </si>
   <si>
     <t xml:space="preserve">Panama/Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geosystem Ingenieria</t>
   </si>
   <si>
     <t xml:space="preserve">Calls 53# 67-83, Bogotá, Colombia
@@ -640,16 +790,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="19.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="98.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="19.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="98.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,541 +809,691 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="84.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>60</v>
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>67</v>
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>72</v>
+        <v>114</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>77</v>
+        <v>122</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>81</v>
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>83</v>
+        <v>131</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
